--- a/src/examples/data_v1_single.xlsx
+++ b/src/examples/data_v1_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\Skola\UvA\Y3P6\git_folder\src\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F036C89-A6B6-4993-9F2D-608908665D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763C6ABF-2804-4944-9FAD-067A283664EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{21867907-8644-4FEF-AD2C-B5CBC4375404}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>starts_at</t>
   </si>
   <si>
@@ -227,7 +224,10 @@
     <t>ignore these for now</t>
   </si>
   <si>
-    <t>product_id 4 = Cola 2L, amount is 8 000 bottles, for which we need 16 000 liters</t>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>product_id 13 = Fanta 500ml</t>
   </si>
 </sst>
 </file>
@@ -685,10 +685,10 @@
         <v>44</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,38 +1352,38 @@
         <v>48</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="4">
-        <f>D2*2</f>
-        <v>16000</v>
+        <f>D2*0.5</f>
+        <v>3750</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G8" si="0">D2*60/1000</f>
-        <v>480</v>
+        <f t="shared" ref="G2" si="0">D2*60/1000</f>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1438,6 +1438,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ad5ad67-15a6-48b9-912e-a20f469816cf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ae52d456-94b7-4f7d-986d-6e761dfce4c3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010029AACF1E989DD642A68A060528E16EE8" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a178b7e379bfb399d93bd573acf2ee2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ad5ad67-15a6-48b9-912e-a20f469816cf" xmlns:ns3="ae52d456-94b7-4f7d-986d-6e761dfce4c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37de965a0f1fe4956c850926ce0bb72f" ns2:_="" ns3:_="">
     <xsd:import namespace="1ad5ad67-15a6-48b9-912e-a20f469816cf"/>
@@ -1686,17 +1697,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ad5ad67-15a6-48b9-912e-a20f469816cf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ae52d456-94b7-4f7d-986d-6e761dfce4c3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F8FD59-1AC4-44F2-B33D-45DC9F9B0863}">
   <ds:schemaRefs>
@@ -1706,6 +1706,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{173CBD6E-BF29-4475-956A-8CA72BBBB9FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ad5ad67-15a6-48b9-912e-a20f469816cf"/>
+    <ds:schemaRef ds:uri="ae52d456-94b7-4f7d-986d-6e761dfce4c3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B09BE82-5C3B-46BB-A2CE-01AFF08E6431}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1722,15 +1733,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{173CBD6E-BF29-4475-956A-8CA72BBBB9FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ad5ad67-15a6-48b9-912e-a20f469816cf"/>
-    <ds:schemaRef ds:uri="ae52d456-94b7-4f7d-986d-6e761dfce4c3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>